--- a/data/trans_camb/P5_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 13,19</t>
+          <t>-9,49; 12,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 10,17</t>
+          <t>-9,85; 11,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 8,19</t>
+          <t>-5,8; 9,96</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 47,89</t>
+          <t>-24,64; 43,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 35,68</t>
+          <t>-27,56; 45,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 29,05</t>
+          <t>-16,39; 34,83</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 12,05</t>
+          <t>-4,77; 11,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 4,39</t>
+          <t>-12,39; 3,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,6</t>
+          <t>-6,23; 5,58</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,15%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-2,14%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 108,01</t>
+          <t>-25,35; 103,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,04; 21,76</t>
+          <t>-43,77; 18,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 33,86</t>
+          <t>-28,73; 33,71</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 9,19</t>
+          <t>-10,22; 4,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 8,14</t>
+          <t>-5,05; 8,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 6,54</t>
+          <t>-5,86; 4,63</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-13,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-2,2%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 56,54</t>
+          <t>-42,24; 30,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 37,18</t>
+          <t>-19,15; 40,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 32,06</t>
+          <t>-23,78; 24,16</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 6,14</t>
+          <t>-8,31; 6,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 5,96</t>
+          <t>-7,6; 6,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 4,1</t>
+          <t>-5,9; 3,98</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,82%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-2,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>-4,43%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 28,5</t>
+          <t>-29,03; 31,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 23,54</t>
+          <t>-24,89; 24,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 17,12</t>
+          <t>-20,42; 16,64</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 11,36</t>
+          <t>-5,94; 11,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 7,94</t>
+          <t>-8,47; 7,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,15</t>
+          <t>-4,46; 7,25</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 49,98</t>
+          <t>-19,92; 47,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 37,02</t>
+          <t>-29,09; 35,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 29,5</t>
+          <t>-15,9; 29,45</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,48</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 8,53</t>
+          <t>-8,66; 10,51</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 6,97</t>
+          <t>-8,86; 6,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 5,29</t>
+          <t>-6,75; 5,35</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-1,7%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 33,13</t>
+          <t>-25,33; 41,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 29,68</t>
+          <t>-30,41; 30,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 20,85</t>
+          <t>-22,23; 21,61</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,22</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,52</t>
+          <t>-3,11; 3,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,46</t>
+          <t>-4,04; 2,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,53</t>
+          <t>-2,63; 1,95</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-0,84%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 19,46</t>
+          <t>-11,78; 17,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 9,94</t>
+          <t>-14,3; 8,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 10,29</t>
+          <t>-9,82; 7,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.943132659228691</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.691103513741998</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.779944684057816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,49; 12,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 11,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; 9,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.479654419412968</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.641503958540762</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.822764892124022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,57%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.34186385882071</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.31104433483055</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.21180541645701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-24,64; 43,14</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-27,56; 45,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,39; 34,83</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.05715143296817739</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.05359465408710153</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.05420142013424983</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2345146749916041</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2543223308954641</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1612192814184519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 11,03</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,39; 3,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 5,58</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4515104179952833</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.5250573404579035</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3557960406754956</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>19,38%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-16,68%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,14%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.780260731386853</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.690538809681751</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1849154113364282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-25,35; 103,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-43,77; 18,82</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-28,73; 33,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.356491141086286</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.04206802309477</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.139162173337645</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,83</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.09504666299044</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.084312737480027</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.114181489628768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 4,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 8,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 4,63</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.2491364132044043</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1520484858191515</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.009465620259182933</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-13,92%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,2%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2280666139863279</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4392514195035521</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2683867992189978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-42,24; 30,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,15; 40,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-23,78; 24,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.146605161370685</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1992954671986431</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3546103451157145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.776262621338743</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.404394045337093</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.6758507084182575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; 6,62</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,6; 6,07</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 3,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.20964534537394</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.635400159588301</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.993549197511718</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-6,08%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,86%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-4,43%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.749236032121126</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.143388804786358</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.428734666340262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-29,03; 31,48</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-24,89; 24,39</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-20,42; 16,64</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1364270903906738</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.05754608218335844</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.03016600770531836</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4174031049780606</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2092065105947356</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2374203253831782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 11,13</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 7,61</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,46; 7,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2868626636652799</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3918256410460012</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2348287373973715</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>8,91%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-3,09%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.730187399424279</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.9396072690221247</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.336925254823407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-19,92; 47,83</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-29,09; 35,0</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; 29,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.546071484952602</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.786117345334633</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.15555417237122</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.165903951595984</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.942769112020597</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.845856138173089</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,66; 10,51</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 6,72</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,75; 5,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.06875803254398846</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.03404597322169582</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.05056524580644804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-5,53%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2961750304854177</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2556459258043468</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2141003702687926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-25,33; 41,12</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-30,41; 30,2</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-22,23; 21,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2959903328975764</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2349115078764039</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1553568964393606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>2.895613250433166</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0.006158695939739722</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1.416108732760502</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 3,9</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 2,28</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 1,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-5.7046321387506</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-7.649730785515686</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-4.095131975615569</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-2,71%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-0,84%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>12.02842599861632</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>8.684073342863899</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7.802376854925781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-11,78; 17,27</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 8,91</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-9,82; 7,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.1049405885422743</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.0002418819939518583</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.05336315916878877</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1824016818227265</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2692429287487714</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.143082413293389</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.5128158383723536</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.4163504816985018</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.3303646512505028</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.6022005892749926</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-1.806031073617298</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-0.7591642603406779</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-8.834562393893831</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-9.438482151469655</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-7.066567955066858</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>10.57395189596102</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>6.303979636471547</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>5.319128953783866</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.02026813417410144</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.06703606112995662</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.02699081966862827</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2692896985669374</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.3197046481517627</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2342935628265319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.4064845278767508</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.2760538061154821</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.2066017684651231</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.4247799900866961</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.5419483484508103</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.069754926699922</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-2.925774230971284</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.730057905617078</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-2.539412064684883</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.181400551729779</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.541299044376121</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>2.297428078922846</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.01700192788996482</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.02038663091894014</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.002703432972602328</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1134520204924691</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1331294021687043</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.09377579242683622</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.1773399389972923</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.1014302915081952</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.09450666002570988</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
